--- a/walking plan.xlsx
+++ b/walking plan.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eflynn\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB568677-A616-4D2D-9BC8-F3E44062E96A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585" tabRatio="439" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="439" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Map Path" sheetId="2" r:id="rId2"/>
     <sheet name="walking plan" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -39,8 +53,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +89,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -96,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -184,11 +212,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -244,6 +346,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -253,6 +372,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -301,7 +423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,9 +456,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,6 +508,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,11 +700,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CV100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BH84" sqref="BH84"/>
+    <sheetView topLeftCell="H40" workbookViewId="0">
+      <selection activeCell="CD62" sqref="CD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18110,15 +18266,15 @@
         <f t="shared" si="787"/>
         <v>33</v>
       </c>
-      <c r="CA44" s="50">
+      <c r="CA44" s="41">
         <f t="shared" si="787"/>
         <v>32</v>
       </c>
-      <c r="CB44" s="51">
+      <c r="CB44" s="42">
         <f t="shared" ref="CB44" si="788">CB43+1</f>
         <v>31</v>
       </c>
-      <c r="CC44" s="4">
+      <c r="CC44" s="55">
         <f t="shared" ref="CC44:CK44" si="789">CD44+1</f>
         <v>70</v>
       </c>
@@ -18512,15 +18668,15 @@
         <f t="shared" si="808"/>
         <v>48</v>
       </c>
-      <c r="CA45" s="50">
+      <c r="CA45" s="41">
         <f t="shared" si="808"/>
         <v>49</v>
       </c>
-      <c r="CB45" s="51">
+      <c r="CB45" s="42">
         <f t="shared" si="808"/>
         <v>50</v>
       </c>
-      <c r="CC45" s="4">
+      <c r="CC45" s="55">
         <f t="shared" ref="CC45" si="809">CC46+1</f>
         <v>51</v>
       </c>
@@ -18914,15 +19070,15 @@
         <f t="shared" si="827"/>
         <v>53</v>
       </c>
-      <c r="CA46" s="50">
+      <c r="CA46" s="41">
         <f t="shared" si="827"/>
         <v>52</v>
       </c>
-      <c r="CB46" s="51">
+      <c r="CB46" s="42">
         <f t="shared" ref="CB46" si="828">CB45+1</f>
         <v>51</v>
       </c>
-      <c r="CC46" s="4">
+      <c r="CC46" s="55">
         <f t="shared" ref="CC46:CK46" si="829">CD46+1</f>
         <v>50</v>
       </c>
@@ -19003,7 +19159,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:100" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f t="shared" ref="A47:I47" si="833">B47+1</f>
         <v>40</v>
@@ -19316,15 +19472,15 @@
         <f t="shared" si="848"/>
         <v>68</v>
       </c>
-      <c r="CA47" s="50">
+      <c r="CA47" s="41">
         <f t="shared" si="848"/>
         <v>69</v>
       </c>
-      <c r="CB47" s="51">
+      <c r="CB47" s="42">
         <f t="shared" si="848"/>
         <v>70</v>
       </c>
-      <c r="CC47" s="4">
+      <c r="CC47" s="55">
         <f t="shared" ref="CC47" si="849">CC48+1</f>
         <v>31</v>
       </c>
@@ -19718,15 +19874,15 @@
         <f t="shared" si="867"/>
         <v>73</v>
       </c>
-      <c r="CA48" s="50">
+      <c r="CA48" s="61">
         <f t="shared" si="867"/>
         <v>72</v>
       </c>
-      <c r="CB48" s="51">
+      <c r="CB48" s="63">
         <f t="shared" ref="CB48" si="868">CB47+1</f>
         <v>71</v>
       </c>
-      <c r="CC48" s="4">
+      <c r="CC48" s="67">
         <f t="shared" ref="CC48:CK48" si="869">CD48+1</f>
         <v>30</v>
       </c>
@@ -20120,15 +20276,15 @@
         <f t="shared" si="888"/>
         <v>88</v>
       </c>
-      <c r="CA49" s="50">
+      <c r="CA49" s="68">
         <f t="shared" si="888"/>
         <v>89</v>
       </c>
-      <c r="CB49" s="51">
+      <c r="CB49" s="69">
         <f t="shared" si="888"/>
         <v>90</v>
       </c>
-      <c r="CC49" s="4">
+      <c r="CC49" s="70">
         <f t="shared" ref="CC49" si="889">CC50+1</f>
         <v>11</v>
       </c>
@@ -20518,15 +20674,15 @@
         <f t="shared" si="903"/>
         <v>93</v>
       </c>
-      <c r="CA50" s="53">
+      <c r="CA50" s="64">
         <f t="shared" si="903"/>
         <v>92</v>
       </c>
-      <c r="CB50" s="54">
+      <c r="CB50" s="66">
         <f t="shared" ref="CB50" si="904">CB49+1</f>
         <v>91</v>
       </c>
-      <c r="CC50" s="7">
+      <c r="CC50" s="71">
         <f t="shared" ref="CC50:CK50" si="905">CD50+1</f>
         <v>10</v>
       </c>
@@ -35843,7 +35999,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:100" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <f t="shared" ref="A89:H89" si="1576">B89+1</f>
         <v>20</v>
@@ -36581,15 +36737,15 @@
         <f t="shared" ref="CF90" si="1608">CE90+1</f>
         <v>31</v>
       </c>
-      <c r="CG90" s="53">
+      <c r="CG90" s="58">
         <f t="shared" si="1541"/>
         <v>50</v>
       </c>
-      <c r="CH90" s="53">
+      <c r="CH90" s="59">
         <f t="shared" ref="CH90" si="1609">CG90+1</f>
         <v>51</v>
       </c>
-      <c r="CI90" s="53">
+      <c r="CI90" s="60">
         <f t="shared" si="1542"/>
         <v>70</v>
       </c>
@@ -36975,15 +37131,15 @@
         <f>CG91+1</f>
         <v>61</v>
       </c>
-      <c r="CG91" s="2">
+      <c r="CG91" s="61">
         <f t="shared" ref="CG91:CG98" si="1656">CG92+1</f>
         <v>60</v>
       </c>
-      <c r="CH91" s="2">
+      <c r="CH91" s="62">
         <f>CI91+1</f>
         <v>41</v>
       </c>
-      <c r="CI91" s="2">
+      <c r="CI91" s="63">
         <f t="shared" ref="CI91:CI98" si="1657">CI92+1</f>
         <v>40</v>
       </c>
@@ -37038,7 +37194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:100" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:100" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <f t="shared" si="1614"/>
         <v>99</v>
@@ -37375,15 +37531,15 @@
         <f t="shared" ref="CF92:CF100" si="1693">CF91+1</f>
         <v>62</v>
       </c>
-      <c r="CG92" s="5">
+      <c r="CG92" s="64">
         <f t="shared" si="1656"/>
         <v>59</v>
       </c>
-      <c r="CH92" s="5">
+      <c r="CH92" s="65">
         <f t="shared" ref="CH92:CH100" si="1694">CH91+1</f>
         <v>42</v>
       </c>
-      <c r="CI92" s="5">
+      <c r="CI92" s="66">
         <f t="shared" si="1657"/>
         <v>39</v>
       </c>
@@ -40687,11 +40843,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="T5" sqref="T5:U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41040,10 +41196,10 @@
       <c r="S5" s="16">
         <v>4</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="56">
         <v>0</v>
       </c>
-      <c r="U5" s="16">
+      <c r="U5" s="56">
         <v>4</v>
       </c>
       <c r="V5" s="18">
@@ -41327,7 +41483,7 @@
       <c r="T9" s="16">
         <v>2</v>
       </c>
-      <c r="U9" s="16">
+      <c r="U9" s="56">
         <v>2</v>
       </c>
       <c r="V9" s="18">
@@ -41398,7 +41554,7 @@
       <c r="T10" s="22">
         <v>3</v>
       </c>
-      <c r="U10" s="22">
+      <c r="U10" s="57">
         <v>3</v>
       </c>
       <c r="V10" s="23">
@@ -41435,7 +41591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
